--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -652,31 +652,31 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -690,31 +690,31 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>3.2</v>
-      </c>
       <c r="N20" s="3" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -740,19 +740,19 @@
         <v>1.1</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -769,28 +769,28 @@
         <v>10</v>
       </c>
       <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K22" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>9</v>
-      </c>
       <c r="M22" s="3" t="n">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>8.6</v>
+        <v>4.300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -804,31 +804,31 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>4.9</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -842,31 +842,31 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J24" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>10</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>5</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>6</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -883,28 +883,28 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L25" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>4.800000000000001</v>
-      </c>
       <c r="N25" s="3" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -918,31 +918,31 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="I26" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I26" s="3" t="n">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="K26" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -956,31 +956,31 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="J27" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>10</v>
-      </c>
       <c r="K27" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>9.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -994,31 +994,31 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="J28" s="3" t="n">
         <v>8</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>7.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>7.6000000000000005</v>
+        <v>8.100000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1032,31 +1032,31 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J29" s="3" t="n">
         <v>6</v>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>4.4</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1082,19 +1082,19 @@
         <v>1.1</v>
       </c>
       <c r="J30" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="K30" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M30" s="3" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>6.300000000000001</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1108,31 +1108,31 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>3</v>
-      </c>
       <c r="H31" s="3" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J31" s="3" t="n">
         <v>6</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>5.6000000000000005</v>
+        <v>3.2</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>6.1000000000000005</v>
+        <v>4.1000000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1146,31 +1146,31 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K32" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>6.800000000000001</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="N32" s="3" t="n">
-        <v>7.300000000000001</v>
+        <v>5.700000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1184,31 +1184,31 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>9</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.9000000000000001</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="J33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="3" t="n">
-        <v>9</v>
-      </c>
       <c r="L33" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="N33" s="3" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1222,31 +1222,31 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>2.8000000000000003</v>
+        <v>7.2</v>
       </c>
       <c r="N34" s="3" t="n">
-        <v>3.5000000000000004</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1260,28 +1260,28 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>1.6</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>4.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="N35" s="3" t="n">
         <v>6.4</v>
@@ -1298,31 +1298,31 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H36" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="I36" s="3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>7</v>
-      </c>
       <c r="L36" s="3" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>4</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="N36" s="3" t="n">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1336,28 +1336,28 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N37" s="3" t="n">
         <v>4.5</v>
@@ -1374,10 +1374,10 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>9</v>
@@ -1386,19 +1386,19 @@
         <v>1.8</v>
       </c>
       <c r="J38" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K38" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="K38" s="3" t="n">
-        <v>3</v>
-      </c>
       <c r="L38" s="3" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="M38" s="3" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N38" s="3" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
